--- a/settlements.xlsx
+++ b/settlements.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\development\GEO_dm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E093E90F-6640-4387-B8C2-F03F0DA52B60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{132C61DC-B6D6-4104-ABA4-0542C11F026B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -1664,7 +1664,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1674,8 +1674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M1008"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="131" zoomScaleNormal="131" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D153" sqref="D153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2555,16 +2555,16 @@
     </row>
     <row r="33" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>194</v>
+        <v>227</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E33" s="4">
         <v>-61.361175000000003</v>
@@ -2582,16 +2582,16 @@
     </row>
     <row r="34" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>9</v>
+        <v>295</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E34" s="4">
         <v>-61.38805</v>
@@ -2609,7 +2609,7 @@
     </row>
     <row r="35" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>19</v>
+        <v>194</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>5</v>
@@ -2636,7 +2636,7 @@
     </row>
     <row r="36" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>71</v>
+        <v>9</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>5</v>
@@ -2663,7 +2663,7 @@
     </row>
     <row r="37" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>135</v>
+        <v>19</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>5</v>
@@ -2690,7 +2690,7 @@
     </row>
     <row r="38" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>143</v>
+        <v>71</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>5</v>
@@ -2717,7 +2717,7 @@
     </row>
     <row r="39" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>5</v>
@@ -2744,7 +2744,7 @@
     </row>
     <row r="40" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>209</v>
+        <v>143</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>5</v>
@@ -2771,7 +2771,7 @@
     </row>
     <row r="41" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>218</v>
+        <v>147</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>5</v>
@@ -2798,7 +2798,7 @@
     </row>
     <row r="42" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>235</v>
+        <v>209</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>5</v>
@@ -2825,7 +2825,7 @@
     </row>
     <row r="43" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>255</v>
+        <v>218</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>5</v>
@@ -2852,7 +2852,7 @@
     </row>
     <row r="44" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>263</v>
+        <v>235</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>5</v>
@@ -2879,7 +2879,7 @@
     </row>
     <row r="45" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>5</v>
@@ -2906,7 +2906,7 @@
     </row>
     <row r="46" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>5</v>
@@ -2933,7 +2933,7 @@
     </row>
     <row r="47" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>5</v>
@@ -2960,7 +2960,7 @@
     </row>
     <row r="48" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>304</v>
+        <v>274</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>5</v>
@@ -2987,16 +2987,16 @@
     </row>
     <row r="49" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>227</v>
+        <v>281</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E49" s="4">
         <v>-61.36075752</v>
@@ -3014,16 +3014,16 @@
     </row>
     <row r="50" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>334</v>
+        <v>304</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="E50" s="4">
         <v>-61.374085999999998</v>
@@ -3041,16 +3041,16 @@
     </row>
     <row r="51" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="E51" s="4">
         <v>-61.410727999999999</v>
@@ -3068,16 +3068,16 @@
     </row>
     <row r="52" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>26</v>
+        <v>257</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="E52" s="4">
         <v>-61.364812000000001</v>
@@ -3095,7 +3095,7 @@
     </row>
     <row r="53" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>33</v>
+        <v>334</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>5</v>
@@ -3122,10 +3122,10 @@
     </row>
     <row r="54" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>24</v>
@@ -3149,10 +3149,10 @@
     </row>
     <row r="55" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>73</v>
+        <v>26</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>24</v>
@@ -3176,10 +3176,10 @@
     </row>
     <row r="56" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>79</v>
+        <v>33</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>24</v>
@@ -3203,10 +3203,10 @@
     </row>
     <row r="57" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>24</v>
@@ -3230,10 +3230,10 @@
     </row>
     <row r="58" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>113</v>
+        <v>73</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>24</v>
@@ -3257,7 +3257,7 @@
     </row>
     <row r="59" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>115</v>
+        <v>79</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>22</v>
@@ -3284,10 +3284,10 @@
     </row>
     <row r="60" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>24</v>
@@ -3311,10 +3311,10 @@
     </row>
     <row r="61" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>24</v>
@@ -3338,7 +3338,7 @@
     </row>
     <row r="62" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>22</v>
@@ -3365,10 +3365,10 @@
     </row>
     <row r="63" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>24</v>
@@ -3392,10 +3392,10 @@
     </row>
     <row r="64" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>24</v>
@@ -3419,7 +3419,7 @@
     </row>
     <row r="65" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>22</v>
@@ -3446,7 +3446,7 @@
     </row>
     <row r="66" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>155</v>
+        <v>129</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>22</v>
@@ -3473,10 +3473,10 @@
     </row>
     <row r="67" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>163</v>
+        <v>137</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>24</v>
@@ -3500,10 +3500,10 @@
     </row>
     <row r="68" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>175</v>
+        <v>145</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>24</v>
@@ -3527,7 +3527,7 @@
     </row>
     <row r="69" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>183</v>
+        <v>155</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>22</v>
@@ -3554,7 +3554,7 @@
     </row>
     <row r="70" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>22</v>
@@ -3581,7 +3581,7 @@
     </row>
     <row r="71" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>5</v>
@@ -3608,10 +3608,10 @@
     </row>
     <row r="72" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>211</v>
+        <v>183</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>24</v>
@@ -3635,7 +3635,7 @@
     </row>
     <row r="73" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>222</v>
+        <v>185</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>22</v>
@@ -3662,10 +3662,10 @@
     </row>
     <row r="74" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>250</v>
+        <v>190</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>251</v>
+        <v>5</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>24</v>
@@ -3689,10 +3689,10 @@
     </row>
     <row r="75" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>258</v>
+        <v>211</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>259</v>
+        <v>5</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>24</v>
@@ -3716,7 +3716,7 @@
     </row>
     <row r="76" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>271</v>
+        <v>222</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>22</v>
@@ -3743,10 +3743,10 @@
     </row>
     <row r="77" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>284</v>
+        <v>250</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>22</v>
+        <v>251</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>24</v>
@@ -3770,10 +3770,10 @@
     </row>
     <row r="78" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
-        <v>291</v>
+        <v>258</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>24</v>
@@ -3797,10 +3797,10 @@
     </row>
     <row r="79" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>302</v>
+        <v>271</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>24</v>
@@ -3824,7 +3824,7 @@
     </row>
     <row r="80" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
-        <v>312</v>
+        <v>284</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>22</v>
@@ -3851,10 +3851,10 @@
     </row>
     <row r="81" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
-        <v>320</v>
+        <v>291</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>5</v>
+        <v>251</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>24</v>
@@ -3878,10 +3878,10 @@
     </row>
     <row r="82" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>322</v>
+        <v>302</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>251</v>
+        <v>5</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>24</v>
@@ -3905,16 +3905,16 @@
     </row>
     <row r="83" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
-        <v>62</v>
+        <v>312</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="E83" s="4">
         <v>-61.372751999999998</v>
@@ -3932,16 +3932,16 @@
     </row>
     <row r="84" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="E84" s="4">
         <v>-61.370813470000002</v>
@@ -3959,16 +3959,16 @@
     </row>
     <row r="85" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>22</v>
+        <v>251</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="E85" s="4">
         <v>-61.411681000000002</v>
@@ -3986,16 +3986,16 @@
     </row>
     <row r="86" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
-        <v>327</v>
+        <v>273</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="E86" s="4">
         <v>-61.432355000000001</v>
@@ -4013,16 +4013,16 @@
     </row>
     <row r="87" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
-        <v>52</v>
+        <v>280</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="E87" s="4">
         <v>-61.370463999999998</v>
@@ -4040,7 +4040,7 @@
     </row>
     <row r="88" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>5</v>
@@ -4067,10 +4067,10 @@
     </row>
     <row r="89" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
-        <v>86</v>
+        <v>324</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>54</v>
@@ -4094,10 +4094,10 @@
     </row>
     <row r="90" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
-        <v>96</v>
+        <v>325</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>54</v>
@@ -4121,7 +4121,7 @@
     </row>
     <row r="91" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
-        <v>139</v>
+        <v>327</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>22</v>
@@ -4148,10 +4148,10 @@
     </row>
     <row r="92" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
-        <v>151</v>
+        <v>52</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>54</v>
@@ -4175,7 +4175,7 @@
     </row>
     <row r="93" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
-        <v>153</v>
+        <v>81</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>5</v>
@@ -4202,10 +4202,10 @@
     </row>
     <row r="94" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
-        <v>169</v>
+        <v>86</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>54</v>
@@ -4229,7 +4229,7 @@
     </row>
     <row r="95" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
-        <v>216</v>
+        <v>96</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>5</v>
@@ -4256,7 +4256,7 @@
     </row>
     <row r="96" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
-        <v>237</v>
+        <v>139</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>22</v>
@@ -4283,10 +4283,10 @@
     </row>
     <row r="97" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
-        <v>247</v>
+        <v>151</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>248</v>
+        <v>22</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>54</v>
@@ -4310,7 +4310,7 @@
     </row>
     <row r="98" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
-        <v>289</v>
+        <v>153</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>5</v>
@@ -4337,10 +4337,10 @@
     </row>
     <row r="99" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
-        <v>300</v>
+        <v>169</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>54</v>
@@ -4364,16 +4364,16 @@
     </row>
     <row r="100" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
-        <v>326</v>
+        <v>216</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>248</v>
+        <v>5</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="E100" s="4">
         <v>-61.445433999999999</v>
@@ -4391,16 +4391,16 @@
     </row>
     <row r="101" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
-        <v>29</v>
+        <v>237</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="E101" s="4">
         <v>-61.464221999999999</v>
@@ -4418,16 +4418,16 @@
     </row>
     <row r="102" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
-        <v>69</v>
+        <v>247</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>5</v>
+        <v>248</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="E102" s="4">
         <v>-61.255240000000001</v>
@@ -4445,16 +4445,16 @@
     </row>
     <row r="103" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
-        <v>98</v>
+        <v>289</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="E103" s="4">
         <v>-61.389144999999999</v>
@@ -4472,16 +4472,16 @@
     </row>
     <row r="104" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
-        <v>179</v>
+        <v>300</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="E104" s="4">
         <v>-61.380007149999997</v>
@@ -4499,16 +4499,16 @@
     </row>
     <row r="105" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
-        <v>181</v>
+        <v>215</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="E105" s="4">
         <v>-61.445433999999999</v>
@@ -4526,16 +4526,16 @@
     </row>
     <row r="106" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
-        <v>201</v>
+        <v>224</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="E106" s="4">
         <v>-61.41122257</v>
@@ -4553,10 +4553,10 @@
     </row>
     <row r="107" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
-        <v>213</v>
+        <v>326</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>5</v>
+        <v>248</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>31</v>
@@ -4580,7 +4580,7 @@
     </row>
     <row r="108" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
-        <v>228</v>
+        <v>29</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>5</v>
@@ -4592,7 +4592,7 @@
         <v>32</v>
       </c>
       <c r="E108" s="4">
-        <v>-61344954</v>
+        <v>-61.344954000000001</v>
       </c>
       <c r="F108" s="4">
         <v>15.41052</v>
@@ -4607,7 +4607,7 @@
     </row>
     <row r="109" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
-        <v>261</v>
+        <v>69</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>5</v>
@@ -4634,7 +4634,7 @@
     </row>
     <row r="110" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
-        <v>31</v>
+        <v>98</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>5</v>
@@ -4661,16 +4661,16 @@
     </row>
     <row r="111" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
-        <v>241</v>
+        <v>179</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>243</v>
+        <v>31</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>244</v>
+        <v>32</v>
       </c>
       <c r="E111" s="4">
         <v>-61.256917360000003</v>
@@ -4688,16 +4688,16 @@
     </row>
     <row r="112" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
-        <v>131</v>
+        <v>181</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>133</v>
+        <v>31</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>134</v>
+        <v>32</v>
       </c>
       <c r="E112" s="4">
         <v>-61.457357999999999</v>
@@ -4715,16 +4715,16 @@
     </row>
     <row r="113" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
-        <v>276</v>
+        <v>201</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>133</v>
+        <v>31</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>134</v>
+        <v>32</v>
       </c>
       <c r="E113" s="4">
         <v>-61.326048</v>
@@ -4742,16 +4742,16 @@
     </row>
     <row r="114" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
-        <v>269</v>
+        <v>213</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>133</v>
+        <v>31</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>134</v>
+        <v>32</v>
       </c>
       <c r="E114" s="4">
         <v>-61.374992229999997</v>
@@ -4769,16 +4769,16 @@
     </row>
     <row r="115" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
-        <v>286</v>
+        <v>228</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="E115" s="4">
         <v>-61.343760000000003</v>
@@ -4796,16 +4796,16 @@
     </row>
     <row r="116" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
-        <v>328</v>
+        <v>261</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="E116" s="4">
         <v>-61.454955439999999</v>
@@ -4823,16 +4823,16 @@
     </row>
     <row r="117" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
-        <v>329</v>
+        <v>31</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>330</v>
+        <v>31</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="E117" s="4">
         <v>-61.389895899999999</v>
@@ -4850,16 +4850,16 @@
     </row>
     <row r="118" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
-        <v>15</v>
+        <v>189</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="E118" s="4">
         <v>-61.388039999999997</v>
@@ -4877,16 +4877,16 @@
     </row>
     <row r="119" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
-        <v>46</v>
+        <v>241</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>17</v>
+        <v>243</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>18</v>
+        <v>244</v>
       </c>
       <c r="E119" s="4">
         <v>-61.25829761</v>
@@ -4904,16 +4904,16 @@
     </row>
     <row r="120" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
-        <v>63</v>
+        <v>131</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>17</v>
+        <v>133</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>18</v>
+        <v>134</v>
       </c>
       <c r="E120" s="4">
         <v>-61.253258000000002</v>
@@ -4931,16 +4931,16 @@
     </row>
     <row r="121" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
-        <v>67</v>
+        <v>276</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>17</v>
+        <v>133</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>18</v>
+        <v>134</v>
       </c>
       <c r="E121" s="4">
         <v>-61.385726040000002</v>
@@ -4958,16 +4958,16 @@
     </row>
     <row r="122" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
-        <v>102</v>
+        <v>269</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>17</v>
+        <v>133</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>18</v>
+        <v>134</v>
       </c>
       <c r="E122" s="4">
         <v>-61.436179000000003</v>
@@ -4985,7 +4985,7 @@
     </row>
     <row r="123" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
-        <v>111</v>
+        <v>286</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>5</v>
@@ -5012,7 +5012,7 @@
     </row>
     <row r="124" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
-        <v>121</v>
+        <v>328</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>5</v>
@@ -5039,13 +5039,13 @@
     </row>
     <row r="125" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
-        <v>127</v>
+        <v>329</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>17</v>
+        <v>330</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>18</v>
@@ -5066,7 +5066,7 @@
     </row>
     <row r="126" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
-        <v>149</v>
+        <v>15</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>5</v>
@@ -5093,10 +5093,10 @@
     </row>
     <row r="127" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B127" s="5" t="s">
-        <v>27</v>
+        <v>46</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>17</v>
@@ -5120,7 +5120,7 @@
     </row>
     <row r="128" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
-        <v>167</v>
+        <v>63</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>5</v>
@@ -5147,10 +5147,10 @@
     </row>
     <row r="129" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
-        <v>171</v>
+        <v>67</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>17</v>
@@ -5174,7 +5174,7 @@
     </row>
     <row r="130" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
-        <v>173</v>
+        <v>102</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>5</v>
@@ -5201,10 +5201,10 @@
     </row>
     <row r="131" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="B131" s="5" t="s">
-        <v>27</v>
+        <v>111</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>17</v>
@@ -5228,7 +5228,7 @@
     </row>
     <row r="132" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
-        <v>233</v>
+        <v>121</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>5</v>
@@ -5255,7 +5255,7 @@
     </row>
     <row r="133" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
-        <v>239</v>
+        <v>127</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>5</v>
@@ -5282,7 +5282,7 @@
     </row>
     <row r="134" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
-        <v>296</v>
+        <v>149</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>5</v>
@@ -5309,7 +5309,7 @@
     </row>
     <row r="135" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
-        <v>308</v>
+        <v>157</v>
       </c>
       <c r="B135" s="5" t="s">
         <v>27</v>
@@ -5336,16 +5336,16 @@
     </row>
     <row r="136" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
-        <v>48</v>
+        <v>167</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="E136" s="4">
         <v>-61.293483000000002</v>
@@ -5363,16 +5363,16 @@
     </row>
     <row r="137" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
-        <v>58</v>
+        <v>171</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="E137" s="4">
         <v>-61.355316000000002</v>
@@ -5390,16 +5390,16 @@
     </row>
     <row r="138" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
-        <v>60</v>
+        <v>173</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="E138" s="4">
         <v>-61.461224000000001</v>
@@ -5417,16 +5417,16 @@
     </row>
     <row r="139" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B139" s="2" t="s">
-        <v>22</v>
+        <v>203</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="E139" s="4">
         <v>-61.3852373</v>
@@ -5444,16 +5444,16 @@
     </row>
     <row r="140" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
-        <v>83</v>
+        <v>233</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="E140" s="4">
         <v>-61.414912000000001</v>
@@ -5471,16 +5471,16 @@
     </row>
     <row r="141" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
-        <v>94</v>
+        <v>239</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="E141" s="4">
         <v>-61.395707999999999</v>
@@ -5498,16 +5498,16 @@
     </row>
     <row r="142" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
-        <v>161</v>
+        <v>296</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="E142" s="4">
         <v>-61.340449</v>
@@ -5525,16 +5525,16 @@
     </row>
     <row r="143" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="B143" s="2" t="s">
-        <v>22</v>
+        <v>308</v>
+      </c>
+      <c r="B143" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="E143" s="4">
         <v>-61.397033497000002</v>
@@ -5552,10 +5552,10 @@
     </row>
     <row r="144" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
-        <v>197</v>
+        <v>48</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>50</v>
@@ -5579,10 +5579,10 @@
     </row>
     <row r="145" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
-        <v>207</v>
+        <v>58</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>50</v>
@@ -5606,10 +5606,10 @@
     </row>
     <row r="146" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
-        <v>220</v>
+        <v>60</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>50</v>
@@ -5633,10 +5633,10 @@
     </row>
     <row r="147" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
-        <v>245</v>
+        <v>77</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>50</v>
@@ -5660,10 +5660,10 @@
     </row>
     <row r="148" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
-        <v>253</v>
+        <v>83</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>50</v>
@@ -5687,7 +5687,7 @@
     </row>
     <row r="149" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
-        <v>278</v>
+        <v>94</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>5</v>
@@ -5714,10 +5714,10 @@
     </row>
     <row r="150" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
-        <v>287</v>
+        <v>161</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>50</v>
@@ -5726,7 +5726,7 @@
         <v>51</v>
       </c>
       <c r="E150" s="4">
-        <v>-61370647</v>
+        <v>-61.370646999999998</v>
       </c>
       <c r="F150" s="4">
         <v>15.281067</v>
@@ -5741,10 +5741,10 @@
     </row>
     <row r="151" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
-        <v>293</v>
+        <v>192</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>50</v>
@@ -5768,10 +5768,10 @@
     </row>
     <row r="152" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
-        <v>314</v>
+        <v>197</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>50</v>
@@ -5795,16 +5795,16 @@
     </row>
     <row r="153" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
-        <v>41</v>
+        <v>207</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E153" s="4">
         <v>-61.329355900000003</v>
@@ -5822,16 +5822,16 @@
     </row>
     <row r="154" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
-        <v>88</v>
+        <v>220</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E154" s="4">
         <v>-61.339443209999999</v>
@@ -5849,16 +5849,16 @@
     </row>
     <row r="155" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
-        <v>109</v>
+        <v>245</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E155" s="4">
         <v>-61.379799599999998</v>
@@ -5875,10 +5875,18 @@
       <c r="M155" s="2"/>
     </row>
     <row r="156" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="2"/>
-      <c r="B156" s="2"/>
-      <c r="C156" s="2"/>
-      <c r="D156" s="2"/>
+      <c r="A156" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="E156" s="4">
         <v>-61.450964999999997</v>
       </c>
@@ -5895,10 +5903,10 @@
     </row>
     <row r="157" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
-        <v>85</v>
+        <v>278</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>50</v>
@@ -5922,16 +5930,16 @@
     </row>
     <row r="158" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
-        <v>106</v>
+        <v>287</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="E158" s="4">
         <v>-61.444265000000001</v>
@@ -5949,16 +5957,16 @@
     </row>
     <row r="159" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
-        <v>189</v>
+        <v>293</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="E159" s="4">
         <v>-61.457416000000002</v>
@@ -5976,16 +5984,16 @@
     </row>
     <row r="160" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
-        <v>215</v>
+        <v>314</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E160" s="4">
         <v>-61.323062</v>
@@ -6003,16 +6011,16 @@
     </row>
     <row r="161" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
-        <v>224</v>
+        <v>85</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E161" s="4">
         <v>-61.319307000000002</v>
@@ -6030,16 +6038,16 @@
     </row>
     <row r="162" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
-        <v>257</v>
+        <v>41</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="E162" s="4">
         <v>-61.406987999999998</v>
@@ -6057,16 +6065,16 @@
     </row>
     <row r="163" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
-        <v>273</v>
+        <v>88</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="E163" s="4">
         <v>-61.410418999999997</v>
@@ -6084,16 +6092,16 @@
     </row>
     <row r="164" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
-        <v>280</v>
+        <v>109</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="E164" s="4">
         <v>-61.383175000000001</v>
@@ -6110,18 +6118,10 @@
       <c r="M164" s="2"/>
     </row>
     <row r="165" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="B165" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C165" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D165" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="A165" s="2"/>
+      <c r="B165" s="2"/>
+      <c r="C165" s="2"/>
+      <c r="D165" s="2"/>
       <c r="E165" s="4"/>
       <c r="F165" s="4"/>
       <c r="G165" s="2"/>
@@ -18778,9 +18778,13 @@
       <c r="M1008" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D164" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:D164" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D164">
+      <sortCondition ref="D1:D164"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/settlements.xlsx
+++ b/settlements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\development\GEO_dm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{132C61DC-B6D6-4104-ABA4-0542C11F026B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BABEFFD-ACD7-4EC5-9560-2E66A69576B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1810" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1810" uniqueCount="384">
   <si>
     <t>SETTLEP</t>
   </si>
@@ -1176,19 +1176,22 @@
     <t>Shelter</t>
   </si>
   <si>
-    <t>Name</t>
+    <t>name</t>
   </si>
   <si>
-    <t>Type</t>
+    <t>type</t>
   </si>
   <si>
-    <t>ParishCode</t>
+    <t>parish</t>
   </si>
   <si>
-    <t>Longitude</t>
+    <t>code</t>
   </si>
   <si>
-    <t>Latitude</t>
+    <t>longitude</t>
+  </si>
+  <si>
+    <t>latitude</t>
   </si>
 </sst>
 </file>
@@ -1674,8 +1677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M1008"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D153" sqref="D153"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1697,16 +1700,16 @@
         <v>379</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>380</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
